--- a/Task3-Test-case-and-Condition-Skillshare/AdvanceTask_NUnit/AdvanceTask_NUnit/TestData/TestData.xlsx
+++ b/Task3-Test-case-and-Condition-Skillshare/AdvanceTask_NUnit/AdvanceTask_NUnit/TestData/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" activeTab="1"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425"/>
   </bookViews>
   <sheets>
     <sheet name="Registration" sheetId="2" r:id="rId1"/>
@@ -111,52 +111,52 @@
     <t>Team</t>
   </si>
   <si>
+    <t>Shareskill</t>
+  </si>
+  <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>Language Level</t>
+  </si>
+  <si>
+    <t>Skill</t>
+  </si>
+  <si>
+    <t>Skill Level</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Degree</t>
+  </si>
+  <si>
+    <t>Year of Graduation</t>
+  </si>
+  <si>
+    <t>Certificate</t>
+  </si>
+  <si>
+    <t>College</t>
+  </si>
+  <si>
+    <t>From</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Url</t>
+  </si>
+  <si>
+    <t>http://localhost:5000</t>
+  </si>
+  <si>
+    <t>Taskteam@gmail.com</t>
+  </si>
+  <si>
     <t>Task</t>
-  </si>
-  <si>
-    <t>Shareskill</t>
-  </si>
-  <si>
-    <t>Language</t>
-  </si>
-  <si>
-    <t>Language Level</t>
-  </si>
-  <si>
-    <t>Skill</t>
-  </si>
-  <si>
-    <t>Skill Level</t>
-  </si>
-  <si>
-    <t>Country</t>
-  </si>
-  <si>
-    <t>Degree</t>
-  </si>
-  <si>
-    <t>Year of Graduation</t>
-  </si>
-  <si>
-    <t>Certificate</t>
-  </si>
-  <si>
-    <t>College</t>
-  </si>
-  <si>
-    <t>From</t>
-  </si>
-  <si>
-    <t>Year</t>
-  </si>
-  <si>
-    <t>Url</t>
-  </si>
-  <si>
-    <t>http://localhost:5000</t>
-  </si>
-  <si>
-    <t>Tasks12@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -552,7 +552,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -562,8 +562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -606,19 +606,19 @@
     </row>
     <row r="2" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>23</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -633,19 +633,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.5703125" customWidth="1"/>
     <col min="2" max="2" width="19.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="8" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>21</v>
@@ -669,13 +670,13 @@
     </row>
     <row r="2" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>39</v>
-      </c>
       <c r="C2" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -715,10 +716,10 @@
   <sheetData>
     <row r="1" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>26</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>27</v>
       </c>
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
@@ -755,10 +756,10 @@
   <sheetData>
     <row r="1" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>29</v>
       </c>
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
@@ -798,19 +799,19 @@
   <sheetData>
     <row r="1" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
@@ -844,13 +845,13 @@
   <sheetData>
     <row r="1" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
